--- a/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -55,6 +61,18 @@
     <t>东方区域发展混合</t>
   </si>
   <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
     <t>88.90</t>
   </si>
   <si>
@@ -71,6 +89,18 @@
   </si>
   <si>
     <t>5.64</t>
+  </si>
+  <si>
+    <t>0.0780</t>
+  </si>
+  <si>
+    <t>0.0701</t>
+  </si>
+  <si>
+    <t>0.0421</t>
+  </si>
+  <si>
+    <t>0.0039</t>
   </si>
 </sst>
 </file>
@@ -428,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,84 +480,114 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001120</t>
-  </si>
-  <si>
-    <t>001121</t>
-  </si>
-  <si>
-    <t>001479</t>
-  </si>
-  <si>
-    <t>001614</t>
-  </si>
-  <si>
-    <t>东方睿鑫热点挖掘灵活配置混合A</t>
-  </si>
-  <si>
-    <t>东方睿鑫热点挖掘灵活配置混合C</t>
-  </si>
-  <si>
-    <t>中邮风格轮动灵活配置混合</t>
-  </si>
-  <si>
-    <t>东方区域发展混合</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>88.90</t>
-  </si>
-  <si>
-    <t>92.27</t>
-  </si>
-  <si>
-    <t>87.58</t>
-  </si>
-  <si>
-    <t>5.61</t>
-  </si>
-  <si>
-    <t>3.97</t>
-  </si>
-  <si>
-    <t>5.64</t>
-  </si>
-  <si>
-    <t>0.0780</t>
-  </si>
-  <si>
-    <t>0.0701</t>
-  </si>
-  <si>
-    <t>0.0421</t>
-  </si>
-  <si>
-    <t>0.0039</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,141 +446,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.94</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3672</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1140,13 +1205,1199 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4442</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6612</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1608</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8329</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5142</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2312,7 +2313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2323,17 +2324,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2343,14 +2364,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.37</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2359,14 +2402,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.94</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2375,14 +2440,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2470</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2391,13 +2478,1025 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4806</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9890</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9564</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7830</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4938</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4661</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3395,7 +3396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3406,17 +3407,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3426,14 +3447,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.79</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3442,14 +3485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.37</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4839</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3458,14 +3523,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.94</v>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3474,14 +3561,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.23</v>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3490,13 +3599,927 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0239</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0084</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,205 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0780</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0701</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001479</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮风格轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0421</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.37</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001614</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方区域发展混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -664,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -715,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>090018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>大成新锐产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>103.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>90.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1639</t>
+          <t>6.6861</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -753,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501022</t>
+          <t>001300</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
+          <t>大成睿景灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>69.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.06</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0642</t>
+          <t>4.4839</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -791,36 +715,872 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>013435</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>大成景气精选六个月持有混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>44.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>89.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>2.2948</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0239</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0084</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +1594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,7 +1615,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -885,36 +1645,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012519</t>
+          <t>090018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成核心趋势混合型证券投资基金A</t>
+          <t>大成新锐产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>125.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9331</t>
+          <t>6.6757</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -923,36 +1683,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012520</t>
+          <t>001300</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成核心趋势混合型证券投资基金D</t>
+          <t>大成睿景灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.53</t>
+          <t>67.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9331</t>
+          <t>3.6366</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -961,36 +1721,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001412</t>
+          <t>013435</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>德邦鑫星价值灵活配置混合A</t>
+          <t>大成景气精选六个月持有混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>46.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.81</t>
+          <t>87.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>2.2470</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -999,36 +1759,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002112</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>德邦鑫星价值灵活配置混合C</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>27.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>61.81</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>1.4806</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1037,36 +1797,872 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009317</t>
+          <t>012519</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金信核心竞争力灵活配置混合</t>
+          <t>大成核心趋势混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>16.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.07</t>
+          <t>87.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.9890</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9564</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7830</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4938</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4661</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +3910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2335,7 +3931,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2365,36 +3961,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090018</t>
+          <t>012519</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成新锐产业混合</t>
+          <t>大成核心趋势混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>125.72</t>
+          <t>29.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>76.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.6757</t>
+          <t>0.9331</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2403,36 +3999,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001300</t>
+          <t>012520</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合A</t>
+          <t>大成核心趋势混合型证券投资基金D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67.47</t>
+          <t>29.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>76.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.6366</t>
+          <t>0.9331</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2441,36 +4037,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013435</t>
+          <t>001412</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成景气精选六个月持有混合A</t>
+          <t>德邦鑫星价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.91</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.13</t>
+          <t>61.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.2470</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2479,36 +4075,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>002112</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>德邦鑫星价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>61.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4806</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2517,872 +4113,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012519</t>
+          <t>009317</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成核心趋势混合型证券投资基金A</t>
+          <t>金信核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.82</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.87</t>
+          <t>84.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9890</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002258</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9564</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008934</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成科技消费股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7830</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160918</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>71.76</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5005</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010826</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成产业趋势混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4938</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012184</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成创新趋势混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>72.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4661</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>013436</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成景气精选六个月持有混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3760</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008935</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成科技消费股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>83.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2320</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>014185</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商专精特新股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>30.94</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2026</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>012520</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成核心趋势混合型证券投资基金D</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1935</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008274</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>73.98</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1847</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010827</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成产业趋势混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1112</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002945</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成盛世精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>70.48</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0888</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>014186</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商专精特新股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>30.94</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008275</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>73.98</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006230</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华研究驱动混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.99</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011254</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>080007</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>87.31</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>012185</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>大成创新趋势混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>72.67</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>620004</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>金元顺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>87.28</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>620002</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>金元顺安成长动力混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>62.78</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011255</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011159</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>71.76</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3396,7 +4156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3417,7 +4177,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3447,36 +4207,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090018</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成新锐产业混合</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>103.50</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>74.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.6861</t>
+          <t>0.1639</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3485,36 +4245,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001300</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合A</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.41</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>73.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.4839</t>
+          <t>0.0642</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3523,872 +4283,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013435</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成景气精选六个月持有混合A</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44.82</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.2948</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001301</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.9651</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002258</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.93</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2248</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014224</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成聚优成长混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0239</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012519</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成核心趋势混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>15.49</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.0084</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012520</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成核心趋势混合型证券投资基金D</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.86</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.0084</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010826</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成产业趋势混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.11</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.9228</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008934</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成科技消费股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.73</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6805</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>012184</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成创新趋势混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>76.41</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3972</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>013436</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成景气精选六个月持有混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3579</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010827</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成产业趋势混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3368</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>014185</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商专精特新股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.35</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2893</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>160918</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>76.67</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2675</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>014225</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成聚优成长混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>81.39</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2009</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008935</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>大成科技消费股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>81.73</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1998</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>014186</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商专精特新股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.35</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1830</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008274</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>80.39</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1603</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>217013</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>83.89</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1256</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002945</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成盛世精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0634</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008275</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>80.39</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0226</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001531</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商安益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>63.68</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>012185</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>大成创新趋势混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>76.41</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011159</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>76.67</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4402,128 +4326,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.93</v>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.79</v>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.37</v>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.19</v>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>23.93</v>
+        <v>21.81</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>19.79</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>23.37</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>1.94</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -583,6 +600,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3996</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9923</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4259</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1756</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9631</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5227</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3667</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3226</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>63.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1588,7 +2649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2670,7 +3731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3904,7 +4965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4150,7 +5211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4320,7 +5381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600378-昊华科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>21.81</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>23.93</v>
+        <v>21.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>19.79</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>23.37</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>1.94</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -600,6 +617,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0281</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3416</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7737</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2992</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0904</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8987</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4591</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015710</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏高端装备龙头混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015711</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏高端装备龙头混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1643,7 +2818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2649,7 +3824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3731,7 +4906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4965,7 +6140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5211,7 +6386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5381,7 +6556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
